--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101680.6560224503</v>
+        <v>18453726.14294448</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101680.6560224503</v>
+        <v>18453726.14294448</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>292986.5423273075</v>
+        <v>35517535.69944195</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>292986.5423273075</v>
+        <v>35517535.69944195</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1488501131.079043</v>
+        <v>16221060.3218494</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18207.31224081897</v>
+        <v>467926.5203848493</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35546.35333972442</v>
+        <v>788086.7711744837</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52827.25134824419</v>
+        <v>1108247.021964117</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70417.5479614268</v>
+        <v>1373073.182649999</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>88131.13707724358</v>
+        <v>1655373.26652654</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>105635.8561492451</v>
+        <v>1992102.650403081</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>123021.8452650619</v>
+        <v>2311643.834279621</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>140407.6647262015</v>
+        <v>2631185.018156161</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>158021.8448151787</v>
+        <v>2893026.154336171</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>175738.2275463735</v>
+        <v>3176107.952506482</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>193242.7769636978</v>
+        <v>3512837.336383022</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>210628.7660795146</v>
+        <v>3832378.520259565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>228014.7551953316</v>
+        <v>4151919.704136107</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245609.7840096409</v>
+        <v>4417031.58801265</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263342.5244001259</v>
+        <v>4696060.924192662</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>20</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
